--- a/medicine/Enfance/Françoise_d'Eaubonne/Françoise_d'Eaubonne.xlsx
+++ b/medicine/Enfance/Françoise_d'Eaubonne/Françoise_d'Eaubonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_d%27Eaubonne</t>
+          <t>Françoise_d'Eaubonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise d'Eaubonne, née Françoise Marie-Thérèse Piston d'Eaubonne le 12 mars 1920 à Paris et morte dans la même ville le 3 août 2005, est une femme de lettres française, romancière, philosophe, essayiste et biographe, militante féministe libertaire et écoféministe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_d%27Eaubonne</t>
+          <t>Françoise_d'Eaubonne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,28 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et enfance
-Françoise d'Eaubonne, née en 1920, est la troisième des quatre enfants d'Étienne Piston d'Eaubonne et de Rosita Martinez Franco. L'une de ses sœurs est l'écrivaine Jehanne Jean-Charles.
-Sa mère, fille d'un chef carliste espagnol [2],[3], est l'une des premières femmes à poursuivre des études scientifiques à la faculté des sciences de Paris, où elle a suivi les cours de Marie Curie[4]. Ses parents se sont rencontrés au Sillon[5], mouvement progressiste chrétien porté par Marc Sangnier. Son père, originaire de Bretagne, est issu d'une famille de grands voyageurs, comptant parmi ses ancêtres un navigateur anti-esclavagiste des Antilles. Il est anarchiste chrétien. Étienne d’Eaubonne est secrétaire général de compagnie d’assurance alors que Rosita-Mariquita Martinez y Franco interrompt sa carrière scientifique une fois mariée. Françoise d'Eaubonne est très tôt sensibilisée par sa mère aux inégalités vécues par les femmes[4].
+          <t>Famille et enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise d'Eaubonne, née en 1920, est la troisième des quatre enfants d'Étienne Piston d'Eaubonne et de Rosita Martinez Franco. L'une de ses sœurs est l'écrivaine Jehanne Jean-Charles.
+Sa mère, fille d'un chef carliste espagnol  est l'une des premières femmes à poursuivre des études scientifiques à la faculté des sciences de Paris, où elle a suivi les cours de Marie Curie. Ses parents se sont rencontrés au Sillon, mouvement progressiste chrétien porté par Marc Sangnier. Son père, originaire de Bretagne, est issu d'une famille de grands voyageurs, comptant parmi ses ancêtres un navigateur anti-esclavagiste des Antilles. Il est anarchiste chrétien. Étienne d’Eaubonne est secrétaire général de compagnie d’assurance alors que Rosita-Mariquita Martinez y Franco interrompt sa carrière scientifique une fois mariée. Françoise d'Eaubonne est très tôt sensibilisée par sa mère aux inégalités vécues par les femmes.
 L'enfance toulousaine de Françoise d'Eaubonne est marquée par le déclin physique de son père dû aux effets des gaz dans les tranchées de la Première Guerre mondiale. Elle a seize ans quand éclate la guerre d'Espagne, dix-neuf ans quand elle voit arriver les républicains en exil.
-Études et carrière d'écrivaine (1940-1960)
-Françoise d'Eaubonne poursuit ses études à la faculté de lettres et aux Beaux-Arts de Toulouse. Tout en entrant en résistance face au nazisme, elle publie ses premiers poèmes en 1942, et Le Cœur de Watteau, son premier roman en 1944[4]. De 20 à 25 ans, elle subit les privations propres à l'époque et rencontre à la Libération, dans une grande gare parisienne, les rescapés juifs de retour des camps. Elle résumera plus tard son sentiment sur cette période de sa vie sous le titre évocateur de Chienne de jeunesse.
-Elle reçoit en 1947 le Prix des lecteurs au cercle Interallié pour son roman Comme un vol de gerfauts[6],[7].
-À partir de 1945 et jusqu'en 1956, Françoise d'Eaubonne est membre du Parti communiste français[8]. Proche de Laurent Schwartz, de Vladimir Jankélévitch, de Lucien Goldmann, elle se marie avec Jacques Aubenque[4].
-Cette jeunesse plaquée sur une personnalité hypersensible la conduit à porter sur le monde un regard critique qui façonnera la militante radicale et féministe. En ce sens, la lecture du Deuxième Sexe de Simone de Beauvoir, en 1949, est déterminante. Deux ans plus tard, elle prend la défense de la philosophe en publiant Le Complexe de Diane[4]. En 1953, elle devient membre du Conseil national des écrivains. Lectrice chez Julliard dans les années 1950, chez Calmann-Lévy au début des années 1960, et à la fin des années 1960 chez Flammarion, elle élève ses enfants, Indiana et Vincent, avec l'aide de sa famille[4].
-Engagements contre la guerre d'Algérie, pour le féminisme et contre la peine de mort (1960-1990)
-Elle milite activement contre la guerre d'Algérie et en septembre 1960, signe le Manifeste des 121, aussi appelé « Déclaration sur le droit à l’insoumission dans la guerre d’Algérie »[9].
-Cofondatrice du Mouvement de libération des femmes (MLF) tout à la fin des années 1960, signataire du Manifeste des 343 pour le droit à l'avortement[10], elle lance le Front homosexuel d'action révolutionnaire (FHAR) avec l'écrivain et journaliste Guy Hocquenghem et Anne-Marie Grélois en 1971[2],[3], alors qu'elle est secrétaire de rédaction au Fléau social[11]. Au sein du MLF, elle anime également le groupe « Écologie et féminisme »[12]. À l'origine du mot « phallocrate » et du terme « écoféminisme » en 1974[13],[14], elle fonde l'association Écologie-Féminisme en 1978. Cette vie littéraire et militante se croise avec celles de Violette Leduc, Nathalie Sarraute[11], Colette, Jean Cocteau, Simone de Beauvoir, dont elle fut une amie très proche, de Jean-Paul Sartre.
-Amie de Michel Foucault, Françoise d'Eaubonne s'engage également pour le droit des prisonniers et contre la peine de mort. Le 6 septembre 1976, elle se marie avec « le détenu Pierre Sanna, matricule 645 513, à Fresnes, condamné à vingt ans de prison pour un meurtre qu'il n'a pas commis » et l'annonce dans les colonnes du journal Libération :
-« En révolte contre la classe dont je suis issue, je veux tourner contre elle les armes qu'elle me donne et détourner les institutions qu'elle fait servir à l'oppression de classe et de sexe. J'épouse Pierrot [Pierre Sanna] parce qu'il n'a jamais baissé la tête, pour ses grèves de la faim qui ont abîmé sans résultat sa santé […] ; pour avoir saisi, étant droit commun, la dimension politique de sa situation[15]. »
-L'année suivante, elle figure aux côtés du comédien Guy Bedos et du chanteur Yvan Dautin, à la tribune de la Mutualité, pour demander l'abolition de la peine de mort[3].
-En 1981, elle est co-solidaire de la publication Avis de recherche consacrée au soutien des appelés insoumis au service militaire[16].
-À partir de 1988, Françoise d'Eaubonne devient secrétaire générale de SOS Sexisme. Elle intervient comme critique littéraire sur Radio Mouvance, Paris Pluriel, Paris FM, Radio-Paris et Radio-Beur (1989).
-Fin de vie et postérité (1990-2005)
-Elle meurt à Paris le 3 août 2005 et est incinérée au cimetière du Père-Lachaise, à Paris[13].
-Ses archives sont conservées à l'Institut mémoires de l'édition contemporaine[11].
-« Pas un jour sans une ligne » : c'est sous la férule de ce mot d'ordre que l'autrice a produit plus de cinquante ouvrages, de Colonnes de l'âme (poèmes, 1942) à L'Évangile de Véronique (essai, 2003) en passant par quelques romans de science-fiction (L'Échiquier du temps, Rêve de feu, Le Sous-marin de l'espace, Les Sept Fils de l'étoile).
-Elle est la grand-mère de l'écrivain-réalisateur David Dufresne[17].
 </t>
         </is>
       </c>
@@ -545,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_d%27Eaubonne</t>
+          <t>Françoise_d'Eaubonne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,16 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Engagements</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Françoise d'Eaubonne a milité pour de nombreuses causes, notamment l'indépendance de l'Algérie et l'abolition de la peine de mort. Mais aussi, les droits des homosexuelles[18], la décroissance et la sortie du système capitaliste, contre le mariage[18], le nucléaire et la psychiatrisation[9].
-Féminisme et écologie
-Françoise d'Eaubonne est cofondatrice du Mouvement de libération des femmes (MLF) en 1968. En son sein, elle anime le groupe « Écologie et féminisme », à une époque où peu de féministes s'intéressent alors à ce thème[19], puis fonde l'association Écologie-Féminisme en 1978.
-S'appuyant sur les théories de Serge Moscovici[20], elle est l'une des premières penseuses à avoir articulé, dans les années 1973-1974, le lien théorique et politique entre écologie et féminisme[21] « en faisant le postulat que les hommes — le patriarcat — ont fait à la fois main basse sur le ventre des femmes et sur les ressources naturelles »[19]. Elle crée alors le mot « écoféminisme », qu'elle définit comme un nouvel humanisme dont l'objectif n'est pas la prise de pouvoir par les femmes, mais « la gestion égalitaire d'un monde à renaître »[22].
-En 1975, elle participe aux activités du commando Ulrike-Meinhof-Puig-Antich en endommageant par deux charges explosives, avec son compagnon Gérard Hof[9], le réacteur en construction de la centrale nucléaire de Fessenheim provoquant le retard de plusieurs mois du chantier[18].
+          <t>Études et carrière d'écrivaine (1940-1960)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise d'Eaubonne poursuit ses études à la faculté de lettres et aux Beaux-Arts de Toulouse. Tout en entrant en résistance face au nazisme, elle publie ses premiers poèmes en 1942, et Le Cœur de Watteau, son premier roman en 1944. De 20 à 25 ans, elle subit les privations propres à l'époque et rencontre à la Libération, dans une grande gare parisienne, les rescapés juifs de retour des camps. Elle résumera plus tard son sentiment sur cette période de sa vie sous le titre évocateur de Chienne de jeunesse.
+Elle reçoit en 1947 le Prix des lecteurs au cercle Interallié pour son roman Comme un vol de gerfauts,.
+À partir de 1945 et jusqu'en 1956, Françoise d'Eaubonne est membre du Parti communiste français. Proche de Laurent Schwartz, de Vladimir Jankélévitch, de Lucien Goldmann, elle se marie avec Jacques Aubenque.
+Cette jeunesse plaquée sur une personnalité hypersensible la conduit à porter sur le monde un regard critique qui façonnera la militante radicale et féministe. En ce sens, la lecture du Deuxième Sexe de Simone de Beauvoir, en 1949, est déterminante. Deux ans plus tard, elle prend la défense de la philosophe en publiant Le Complexe de Diane. En 1953, elle devient membre du Conseil national des écrivains. Lectrice chez Julliard dans les années 1950, chez Calmann-Lévy au début des années 1960, et à la fin des années 1960 chez Flammarion, elle élève ses enfants, Indiana et Vincent, avec l'aide de sa famille.
 </t>
         </is>
       </c>
@@ -580,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_d%27Eaubonne</t>
+          <t>Françoise_d'Eaubonne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,15 +599,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix littéraire
-Prix des lecteurs 1947 au cercle Interallié, pour son roman Comme un vol de gerfauts[6],[7]
-Décoration
- Officier de l'ordre des Arts et des Lettres (2002)[23]</t>
+          <t>Engagements contre la guerre d'Algérie, pour le féminisme et contre la peine de mort (1960-1990)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle milite activement contre la guerre d'Algérie et en septembre 1960, signe le Manifeste des 121, aussi appelé « Déclaration sur le droit à l’insoumission dans la guerre d’Algérie ».
+Cofondatrice du Mouvement de libération des femmes (MLF) tout à la fin des années 1960, signataire du Manifeste des 343 pour le droit à l'avortement, elle lance le Front homosexuel d'action révolutionnaire (FHAR) avec l'écrivain et journaliste Guy Hocquenghem et Anne-Marie Grélois en 1971 alors qu'elle est secrétaire de rédaction au Fléau social. Au sein du MLF, elle anime également le groupe « Écologie et féminisme ». À l'origine du mot « phallocrate » et du terme « écoféminisme » en 1974 elle fonde l'association Écologie-Féminisme en 1978. Cette vie littéraire et militante se croise avec celles de Violette Leduc, Nathalie Sarraute, Colette, Jean Cocteau, Simone de Beauvoir, dont elle fut une amie très proche, de Jean-Paul Sartre.
+Amie de Michel Foucault, Françoise d'Eaubonne s'engage également pour le droit des prisonniers et contre la peine de mort. Le 6 septembre 1976, elle se marie avec « le détenu Pierre Sanna, matricule 645 513, à Fresnes, condamné à vingt ans de prison pour un meurtre qu'il n'a pas commis » et l'annonce dans les colonnes du journal Libération :
+« En révolte contre la classe dont je suis issue, je veux tourner contre elle les armes qu'elle me donne et détourner les institutions qu'elle fait servir à l'oppression de classe et de sexe. J'épouse Pierrot [Pierre Sanna] parce qu'il n'a jamais baissé la tête, pour ses grèves de la faim qui ont abîmé sans résultat sa santé […] ; pour avoir saisi, étant droit commun, la dimension politique de sa situation. »
+L'année suivante, elle figure aux côtés du comédien Guy Bedos et du chanteur Yvan Dautin, à la tribune de la Mutualité, pour demander l'abolition de la peine de mort.
+En 1981, elle est co-solidaire de la publication Avis de recherche consacrée au soutien des appelés insoumis au service militaire.
+À partir de 1988, Françoise d'Eaubonne devient secrétaire générale de SOS Sexisme. Elle intervient comme critique littéraire sur Radio Mouvance, Paris Pluriel, Paris FM, Radio-Paris et Radio-Beur (1989).
+</t>
         </is>
       </c>
     </row>
@@ -613,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_d%27Eaubonne</t>
+          <t>Françoise_d'Eaubonne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,15 +642,236 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fin de vie et postérité (1990-2005)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle meurt à Paris le 3 août 2005 et est incinérée au cimetière du Père-Lachaise, à Paris.
+Ses archives sont conservées à l'Institut mémoires de l'édition contemporaine.
+« Pas un jour sans une ligne » : c'est sous la férule de ce mot d'ordre que l'autrice a produit plus de cinquante ouvrages, de Colonnes de l'âme (poèmes, 1942) à L'Évangile de Véronique (essai, 2003) en passant par quelques romans de science-fiction (L'Échiquier du temps, Rêve de feu, Le Sous-marin de l'espace, Les Sept Fils de l'étoile).
+Elle est la grand-mère de l'écrivain-réalisateur David Dufresne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise d'Eaubonne a milité pour de nombreuses causes, notamment l'indépendance de l'Algérie et l'abolition de la peine de mort. Mais aussi, les droits des homosexuelles, la décroissance et la sortie du système capitaliste, contre le mariage, le nucléaire et la psychiatrisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Féminisme et écologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise d'Eaubonne est cofondatrice du Mouvement de libération des femmes (MLF) en 1968. En son sein, elle anime le groupe « Écologie et féminisme », à une époque où peu de féministes s'intéressent alors à ce thème, puis fonde l'association Écologie-Féminisme en 1978.
+S'appuyant sur les théories de Serge Moscovici, elle est l'une des premières penseuses à avoir articulé, dans les années 1973-1974, le lien théorique et politique entre écologie et féminisme « en faisant le postulat que les hommes — le patriarcat — ont fait à la fois main basse sur le ventre des femmes et sur les ressources naturelles ». Elle crée alors le mot « écoféminisme », qu'elle définit comme un nouvel humanisme dont l'objectif n'est pas la prise de pouvoir par les femmes, mais « la gestion égalitaire d'un monde à renaître ».
+En 1975, elle participe aux activités du commando Ulrike-Meinhof-Puig-Antich en endommageant par deux charges explosives, avec son compagnon Gérard Hof, le réacteur en construction de la centrale nucléaire de Fessenheim provoquant le retard de plusieurs mois du chantier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix littéraire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix des lecteurs 1947 au cercle Interallié, pour son roman Comme un vol de gerfauts,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre des Arts et des Lettres (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi ses publications se trouvent des poèmes, des romans, des essais, des biographies. On y trouve notamment des « romans de science-fiction post-patriarcale », radicaux pour l'époque[19], et des romans érotiques.
-Romans
-Le Cœur de Watteau, 1944
-Comme un vol de gerfauts, prix des lecteurs 1947[6],[7]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ses publications se trouvent des poèmes, des romans, des essais, des biographies. On y trouve notamment des « romans de science-fiction post-patriarcale », radicaux pour l'époque, et des romans érotiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Cœur de Watteau, 1944
+Comme un vol de gerfauts, prix des lecteurs 1947,
 Jours de chaleur, Éditions de Paris , série blonde (érotique), 1955
 Le Ministère des vains désirs, nouvelles éditions Debresse, 1955
 Belle Humeur ou la Véridique Histoire de Mandrin, 1957
@@ -646,22 +881,132 @@
 On vous appelait terroristes, 1979
 Je ne suis pas née pour mourir, 1982
 Terrorist's blues, 1987
-Floralies du désert, 1995
-Science fiction
-L'Échiquier du temps, 1962
+Floralies du désert, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Science fiction</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'Échiquier du temps, 1962
 Les Sept Fils de l'étoile, 1962
 Rêve de feu, 1964
 Le Satellite de l'Amande, 1975
 Les Bergères de l'Apocalypse, 1978
-Un bonheur viril, 2022
-Pour la jeunesse
-Chevrette et Virginie, Hachette, coll. « Bibliothèque verte », 1958
+Un bonheur viril, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Chevrette et Virginie, Hachette, coll. « Bibliothèque verte », 1958
 Le Sous-marin de l'espace, Gautier-Languereau, coll. « Nouvelle Bibliothèque de Suzette », no 2, 1959
 Le Gabier de Surcouf, Brepols, coll. « Junior Club », 1959
 Les Fiancés du Puits-Doré, Hachette, coll. « Bibliothèque verte », 1961
-L'Amazone bleue, Hachette, coll. « Bibliothèque verte », 1962
-Biographies
-La Vie passionnée d'Arthur Rimbaud, 1957
+L'Amazone bleue, Hachette, coll. « Bibliothèque verte », 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La Vie passionnée d'Arthur Rimbaud, 1957
 La Vie passionnée de Verlaine, 1959
 La Vie de Chopin, 1964
 Une femme témoin de son siècle, Germaine de Staël, 1966
@@ -673,9 +1018,43 @@
 Louise Michel la Canaque, 1985
 Une femme nommée Castor, 1986
 Les Scandaleuses, 1990
-L'Évangile de Véronique, 2000
-Essais
-Le Complexe de Diane, érotisme ou féminisme, 1951
+L'Évangile de Véronique, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Complexe de Diane, érotisme ou féminisme, 1951
 Verlaine et Rimbaud ou la fausse évasion, 1960
 Y a-t-il encore des hommes?, 1964
 Éros minoritaire, 1970
@@ -691,13 +1070,81 @@
 Féminin et philosophie : une allergie historique, 1997
 La Liseuse et la Lyre, 1997
 Le sexocide des sorcières, 1999
-Mémoires irréductibles: de l'entre-deux-guerres à l'an 2000, éditions Dagorno, 2001
-Poèmes
-1942 : Colonnes de l'âme
+Mémoires irréductibles: de l'entre-deux-guerres à l'an 2000, éditions Dagorno, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Poèmes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1942 : Colonnes de l'âme
 1951 : Démons et merveilles
-1981 : Ni lieu, ni mètre
-Autres écrits
-Pamphlets (20 ans de mensonges, contre Longo Maï, ce qui déclencha une plainte en diffamation, une procédure de 14 années), traductions (poèmes d'Emily Brontë), édition critique des lettres de Flaubert, nombreuses préfaces, etc.
+1981 : Ni lieu, ni mètre</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Françoise_d'Eaubonne</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_d%27Eaubonne</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres écrits</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pamphlets (20 ans de mensonges, contre Longo Maï, ce qui déclencha une plainte en diffamation, une procédure de 14 années), traductions (poèmes d'Emily Brontë), édition critique des lettres de Flaubert, nombreuses préfaces, etc.
 Elle laisse avant de mourir un impressionnant volume de souvenirs, sous le titre Mémoires irréductibles, qui regroupe Putain de jeunesse (antérieurement publié par son éditeur sous le titre Chienne de jeunesse), Les Monstres de l'été, L'Indicateur du réseau et Les Feux du crépuscule, ce dernier inédit jusque-là.
 </t>
         </is>
